--- a/week-8/8-2-A-building-excel-dashboards/edmonton-transit.xlsx
+++ b/week-8/8-2-A-building-excel-dashboards/edmonton-transit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8946" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8948" uniqueCount="421">
   <si>
     <t>Ward</t>
   </si>
@@ -1291,6 +1291,12 @@
   <si>
     <t>https://data.edmonton.ca/Census/2016-Census-Population-by-Mode-of-Transportation-N/h7iv-tgcw</t>
   </si>
+  <si>
+    <t>h/t:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dummies.com/software/microsoft-office/excel/creating-waffle-charts-in-excel-with-conditional-formatting/  </t>
+  </si>
 </sst>
 </file>
 
@@ -2429,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,9 +2454,18 @@
         <v>418</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -69303,8 +69318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
